--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359139.413421017</v>
+        <v>1355191.946625252</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34036925.27449486</v>
+        <v>34036925.27449484</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6285583.054533833</v>
+        <v>6285583.054533832</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3692115.596700291</v>
+        <v>3692115.59670029</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>398.8083745768155</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G11" t="n">
-        <v>370.7272836892487</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H11" t="n">
-        <v>40.6236983875903</v>
+        <v>166.1406045650367</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V11" t="n">
-        <v>334.2103998474429</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W11" t="n">
-        <v>376.0265193250082</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>390.1706580684136</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>379.4228817452743</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.6232235330688</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426295</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.1200518137284</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C13" t="n">
-        <v>146.0557136835385</v>
+        <v>53.49077844944919</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4388321524237</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E13" t="n">
-        <v>143.2800429937013</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F13" t="n">
-        <v>150.1596027797925</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.3133878655379</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>106.2402392964085</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>19.40154665531222</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T13" t="n">
-        <v>215.0443711375586</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U13" t="n">
-        <v>250.8223849136756</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V13" t="n">
-        <v>259.305572330205</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W13" t="n">
-        <v>244.5257596515026</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X13" t="n">
-        <v>218.1574564018528</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.365093260964</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>107.3564080816284</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>404.6566166752189</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>398.8083745768155</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>370.7272836892487</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H14" t="n">
-        <v>242.2439552234598</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>376.0265193250082</v>
+        <v>335.8400359317243</v>
       </c>
       <c r="X14" t="n">
-        <v>390.1706580684136</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5071388043568</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V15" t="n">
         <v>197.1263427586206</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>165.1200518137284</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C16" t="n">
-        <v>146.0557136835385</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D16" t="n">
-        <v>139.4388321524237</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>143.2800429937013</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F16" t="n">
-        <v>150.1596027797925</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G16" t="n">
-        <v>138.3133878655379</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H16" t="n">
-        <v>19.40154665531237</v>
+        <v>40.63848641499648</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T16" t="n">
-        <v>215.0443711375586</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U16" t="n">
-        <v>250.8223849136756</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V16" t="n">
-        <v>259.305572330205</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W16" t="n">
-        <v>244.5257596515026</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X16" t="n">
-        <v>218.1574564018528</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.365093260964</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C17" t="n">
-        <v>76.61262114740521</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D17" t="n">
-        <v>406.7703062592311</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E17" t="n">
-        <v>404.6566166752189</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F17" t="n">
-        <v>398.8083745768155</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G17" t="n">
-        <v>370.7272836892487</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>242.2439552234598</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>390.1706580684136</v>
+        <v>273.5176566961961</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.1200518137284</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C19" t="n">
-        <v>146.0557136835385</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D19" t="n">
-        <v>139.4388321524237</v>
+        <v>97.07938739950627</v>
       </c>
       <c r="E19" t="n">
-        <v>143.2800429937013</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F19" t="n">
-        <v>150.1596027797925</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G19" t="n">
-        <v>138.3133878655379</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.2402392964085</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>37.68395298004571</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>118.201892392739</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T19" t="n">
-        <v>215.0443711375586</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U19" t="n">
-        <v>250.8223849136756</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V19" t="n">
-        <v>259.305572330205</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W19" t="n">
-        <v>244.5257596515026</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X19" t="n">
-        <v>119.3571106644258</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.365093260964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.52128647619434</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C20" t="n">
-        <v>408.9806673703421</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D20" t="n">
-        <v>406.7703062592311</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E20" t="n">
-        <v>404.6566166752189</v>
+        <v>75.68950428890979</v>
       </c>
       <c r="F20" t="n">
-        <v>398.8083745768155</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>370.7272836892487</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>242.2439552234598</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.28132536928219</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623946</v>
       </c>
       <c r="H21" t="n">
-        <v>31.6232235330688</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.1200518137284</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C22" t="n">
-        <v>146.0557136835385</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4388321524237</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E22" t="n">
-        <v>143.2800429937013</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F22" t="n">
-        <v>150.1596027797925</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G22" t="n">
-        <v>51.47469522444145</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H22" t="n">
-        <v>106.2402392964084</v>
+        <v>19.40154665531214</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>215.0443711375586</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U22" t="n">
-        <v>250.8223849136756</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V22" t="n">
-        <v>259.305572330205</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W22" t="n">
-        <v>244.5257596515026</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X22" t="n">
-        <v>218.1574564018528</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.365093260964</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.577985451981314</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G23" t="n">
-        <v>370.7272836892487</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.28132536928218</v>
+        <v>15.28132536928228</v>
       </c>
       <c r="T23" t="n">
-        <v>184.8731582975101</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>231.6996038456324</v>
+        <v>63.43248275559297</v>
       </c>
       <c r="V23" t="n">
-        <v>334.2103998474429</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>376.0265193250082</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X23" t="n">
-        <v>390.1706580684136</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y23" t="n">
-        <v>379.4228817452743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306947</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.1200518137284</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C25" t="n">
-        <v>146.0557136835385</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4388321524237</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E25" t="n">
-        <v>143.2800429937013</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F25" t="n">
-        <v>150.1596027797925</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G25" t="n">
-        <v>138.3133878655379</v>
+        <v>1.829089148064958</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.40154665531267</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T25" t="n">
-        <v>215.0443711375586</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U25" t="n">
-        <v>250.8223849136756</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V25" t="n">
-        <v>259.305572330205</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W25" t="n">
-        <v>244.5257596515026</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X25" t="n">
-        <v>218.1574564018528</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.365093260964</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>79.3477199857423</v>
       </c>
       <c r="V26" t="n">
-        <v>292.6473767445981</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C27" t="n">
-        <v>105.3918965517239</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D27" t="n">
         <v>94.13938596491228</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426295</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2721,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>53.19117033386377</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>214.5646102646769</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>179.6088691848041</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>64.42685903869366</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426295</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2930,7 +2930,7 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586204</v>
       </c>
       <c r="W30" t="n">
         <v>183.4695267241379</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>170.3034090720304</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>31.15859279518802</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>116.6395830120779</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>152.5041553077964</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3164,7 +3164,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5071388043575</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V33" t="n">
         <v>197.1263427586206</v>
@@ -3173,7 +3173,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X33" t="n">
-        <v>153.3187614035088</v>
+        <v>153.3187614035089</v>
       </c>
       <c r="Y33" t="n">
         <v>125.2209214285714</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>7.722803593220153</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>137.6384805602076</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156.7012890994284</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>3.008008304820071</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V36" t="n">
-        <v>197.1263427586204</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W36" t="n">
         <v>183.4695267241379</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.61165322604585</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.34995949258546</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>180.447977282573</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>195.7731869217371</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3638,7 +3638,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043575</v>
       </c>
       <c r="V39" t="n">
         <v>197.1263427586206</v>
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>54.31661462074911</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,7 +3678,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>60.93349615186388</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>291.0186881879511</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>70.91523930808252</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.52738940623946</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
         <v>31.62322353306971</v>
@@ -3872,7 +3872,7 @@
         <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
-        <v>124.8306395731037</v>
+        <v>124.8306395731035</v>
       </c>
       <c r="U42" t="n">
         <v>174.5071388043578</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>49.34995949258573</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>95.68975763562099</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>143.4254984568475</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>361.4649050157271</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586204</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>183.469526724137</v>
       </c>
       <c r="X45" t="n">
         <v>153.3187614035088</v>
@@ -4137,16 +4137,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>86.2743250078022</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>168.4758380718383</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>865.5493360475957</v>
+        <v>1405.445874984756</v>
       </c>
       <c r="C11" t="n">
-        <v>865.5493360475957</v>
+        <v>992.3340897621883</v>
       </c>
       <c r="D11" t="n">
-        <v>865.5493360475957</v>
+        <v>992.3340897621883</v>
       </c>
       <c r="E11" t="n">
-        <v>865.5493360475957</v>
+        <v>992.3340897621883</v>
       </c>
       <c r="F11" t="n">
-        <v>462.7125940508124</v>
+        <v>589.4973477654048</v>
       </c>
       <c r="G11" t="n">
-        <v>88.24059032429847</v>
+        <v>215.0253440388908</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895472</v>
@@ -5047,7 +5047,7 @@
         <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5074,19 +5074,19 @@
         <v>2360.327577447736</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>2126.287573563259</v>
       </c>
       <c r="V11" t="n">
-        <v>2022.741314975572</v>
+        <v>1788.701311091094</v>
       </c>
       <c r="W11" t="n">
-        <v>1642.916547980614</v>
+        <v>1788.701311091094</v>
       </c>
       <c r="X11" t="n">
-        <v>1248.804772153933</v>
+        <v>1788.701311091094</v>
       </c>
       <c r="Y11" t="n">
-        <v>865.5493360475957</v>
+        <v>1405.445874984756</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663899</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030321</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495854</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765391</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927007</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235755</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
         <v>335.7952991210681</v>
@@ -5129,7 +5129,7 @@
         <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5141,31 +5141,31 @@
         <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S12" t="n">
-        <v>1632.030085633325</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T12" t="n">
-        <v>1505.938530508978</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U12" t="n">
-        <v>1329.668693332859</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V12" t="n">
-        <v>1130.551175394858</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280523</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669323</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.875206146153</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>771.6990560691507</v>
+        <v>671.9007270414463</v>
       </c>
       <c r="C13" t="n">
-        <v>624.1680321463846</v>
+        <v>617.8696376985683</v>
       </c>
       <c r="D13" t="n">
-        <v>483.3207269419161</v>
+        <v>477.0223324940998</v>
       </c>
       <c r="E13" t="n">
-        <v>338.5934107866623</v>
+        <v>332.2950163388459</v>
       </c>
       <c r="F13" t="n">
-        <v>186.9170443424274</v>
+        <v>332.2950163388459</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895472</v>
+        <v>192.5845235453731</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>85.27115051869788</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>217.2244773267158</v>
+        <v>217.2244773267157</v>
       </c>
       <c r="K13" t="n">
-        <v>613.3156093762976</v>
+        <v>613.3156093762975</v>
       </c>
       <c r="L13" t="n">
-        <v>761.7189879054837</v>
+        <v>1134.555841572447</v>
       </c>
       <c r="M13" t="n">
-        <v>916.8559571549013</v>
+        <v>1289.692810821864</v>
       </c>
       <c r="N13" t="n">
-        <v>1068.887445869679</v>
+        <v>1441.724299536641</v>
       </c>
       <c r="O13" t="n">
         <v>1584.022757795291</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2340.730055573683</v>
+        <v>2240.931726545979</v>
       </c>
       <c r="T13" t="n">
-        <v>2123.513519071099</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U13" t="n">
-        <v>1870.157574713851</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V13" t="n">
-        <v>1608.23275417829</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.23703735859</v>
+        <v>1261.438708330886</v>
       </c>
       <c r="X13" t="n">
-        <v>1140.875970286012</v>
+        <v>1041.077641258307</v>
       </c>
       <c r="Y13" t="n">
-        <v>938.4869871941289</v>
+        <v>838.6886581664246</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1586.391034626098</v>
+        <v>421.6785552754687</v>
       </c>
       <c r="C14" t="n">
-        <v>1586.391034626098</v>
+        <v>421.6785552754687</v>
       </c>
       <c r="D14" t="n">
-        <v>1477.950218382029</v>
+        <v>421.6785552754687</v>
       </c>
       <c r="E14" t="n">
-        <v>1069.206161134333</v>
+        <v>421.6785552754687</v>
       </c>
       <c r="F14" t="n">
-        <v>666.3694191375492</v>
+        <v>421.6785552754687</v>
       </c>
       <c r="G14" t="n">
-        <v>291.8974154110354</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2173.587013510858</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>1939.54700962638</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1939.54700962638</v>
       </c>
       <c r="W14" t="n">
-        <v>1980.502810452778</v>
+        <v>1600.314650099386</v>
       </c>
       <c r="X14" t="n">
-        <v>1586.391034626098</v>
+        <v>1206.202874272705</v>
       </c>
       <c r="Y14" t="n">
-        <v>1586.391034626098</v>
+        <v>822.9474381663676</v>
       </c>
     </row>
     <row r="15">
@@ -5351,43 +5351,43 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R15" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S15" t="n">
-        <v>1632.030085633325</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T15" t="n">
-        <v>1505.938530508978</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U15" t="n">
         <v>1329.66869333286</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>791.2965779432036</v>
+        <v>671.9007270414468</v>
       </c>
       <c r="C16" t="n">
-        <v>643.7655540204374</v>
+        <v>524.3697031186805</v>
       </c>
       <c r="D16" t="n">
-        <v>502.918248815969</v>
+        <v>524.3697031186805</v>
       </c>
       <c r="E16" t="n">
-        <v>358.1909326607152</v>
+        <v>379.6423869634266</v>
       </c>
       <c r="F16" t="n">
-        <v>206.5145662164803</v>
+        <v>227.9660205191916</v>
       </c>
       <c r="G16" t="n">
-        <v>66.80407342300762</v>
+        <v>88.25552772571885</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>217.2244773267158</v>
+        <v>217.2244773267157</v>
       </c>
       <c r="K16" t="n">
-        <v>613.3156093762976</v>
+        <v>613.3156093762975</v>
       </c>
       <c r="L16" t="n">
         <v>1134.555841572447</v>
@@ -5457,31 +5457,31 @@
         <v>2056.831284854205</v>
       </c>
       <c r="Q16" t="n">
-        <v>2319.32390786008</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T16" t="n">
-        <v>2143.111040945152</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U16" t="n">
-        <v>1889.755096587904</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.830276052343</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W16" t="n">
-        <v>1380.834559232643</v>
+        <v>1261.438708330887</v>
       </c>
       <c r="X16" t="n">
-        <v>1160.473492160065</v>
+        <v>1041.077641258308</v>
       </c>
       <c r="Y16" t="n">
-        <v>958.0845090681819</v>
+        <v>838.6886581664251</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1966.215801621055</v>
+        <v>1682.778233247549</v>
       </c>
       <c r="C17" t="n">
-        <v>1888.829315613575</v>
+        <v>1269.666448024981</v>
       </c>
       <c r="D17" t="n">
-        <v>1477.950218382029</v>
+        <v>858.7873507934341</v>
       </c>
       <c r="E17" t="n">
-        <v>1069.206161134333</v>
+        <v>450.0432935457382</v>
       </c>
       <c r="F17" t="n">
-        <v>666.3694191375492</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>291.8974154110354</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5533,34 +5533,34 @@
         <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X17" t="n">
-        <v>1966.215801621055</v>
+        <v>2084.047116138448</v>
       </c>
       <c r="Y17" t="n">
-        <v>1966.215801621055</v>
+        <v>2084.047116138448</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663899</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030321</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495854</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765391</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
         <v>163.5203019927016</v>
@@ -5588,58 +5588,58 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>1632.030085633325</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
-        <v>1505.938530508978</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U18" t="n">
-        <v>1329.668693332859</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V18" t="n">
-        <v>1130.551175394858</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280523</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669323</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.875206146153</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>771.6990560691507</v>
+        <v>874.2897101333297</v>
       </c>
       <c r="C19" t="n">
-        <v>624.1680321463846</v>
+        <v>726.7586862105634</v>
       </c>
       <c r="D19" t="n">
-        <v>483.3207269419161</v>
+        <v>628.6986989383348</v>
       </c>
       <c r="E19" t="n">
-        <v>338.5934107866623</v>
+        <v>483.9713827830809</v>
       </c>
       <c r="F19" t="n">
-        <v>186.9170443424274</v>
+        <v>332.2950163388459</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895471</v>
+        <v>192.5845235453731</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895471</v>
+        <v>85.27115051869788</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>217.2244773267158</v>
+        <v>217.2244773267157</v>
       </c>
       <c r="K19" t="n">
-        <v>613.3156093762976</v>
+        <v>613.3156093762975</v>
       </c>
       <c r="L19" t="n">
-        <v>1134.555841572447</v>
+        <v>761.7189879054835</v>
       </c>
       <c r="M19" t="n">
-        <v>1289.692810821864</v>
+        <v>916.855957154901</v>
       </c>
       <c r="N19" t="n">
-        <v>1441.724299536641</v>
+        <v>1068.887445869678</v>
       </c>
       <c r="O19" t="n">
         <v>1584.022757795291</v>
@@ -5694,13 +5694,13 @@
         <v>2056.831284854205</v>
       </c>
       <c r="Q19" t="n">
-        <v>2319.32390786008</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2240.931726545979</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T19" t="n">
         <v>2023.715190043395</v>
@@ -5712,13 +5712,13 @@
         <v>1508.434425150586</v>
       </c>
       <c r="W19" t="n">
-        <v>1261.438708330886</v>
+        <v>1261.438708330887</v>
       </c>
       <c r="X19" t="n">
-        <v>1140.875970286012</v>
+        <v>1041.077641258308</v>
       </c>
       <c r="Y19" t="n">
-        <v>938.4869871941289</v>
+        <v>1041.077641258308</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2301.941100836143</v>
+        <v>947.6514787393419</v>
       </c>
       <c r="C20" t="n">
-        <v>1888.829315613575</v>
+        <v>534.5396935167739</v>
       </c>
       <c r="D20" t="n">
-        <v>1477.950218382029</v>
+        <v>123.6605962852273</v>
       </c>
       <c r="E20" t="n">
-        <v>1069.206161134333</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F20" t="n">
-        <v>666.3694191375492</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>291.8974154110354</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.891895256541</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.891895256541</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.891895256541</v>
+        <v>2126.287573563259</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.891895256541</v>
+        <v>2126.287573563259</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.891895256541</v>
+        <v>2126.287573563259</v>
       </c>
       <c r="X20" t="n">
-        <v>2344.891895256541</v>
+        <v>1732.175797736579</v>
       </c>
       <c r="Y20" t="n">
-        <v>2344.891895256541</v>
+        <v>1348.920361630241</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663899</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030321</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495854</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765391</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927007</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235755</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
         <v>335.7952991210681</v>
@@ -5840,7 +5840,7 @@
         <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5852,31 +5852,31 @@
         <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>1632.030085633325</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>1505.938530508978</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>1329.668693332859</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1130.551175394858</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280523</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669323</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.875206146153</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>791.2965779432031</v>
+        <v>791.2965779432038</v>
       </c>
       <c r="C22" t="n">
-        <v>643.765554020437</v>
+        <v>643.7655540204375</v>
       </c>
       <c r="D22" t="n">
-        <v>502.9182488159686</v>
+        <v>502.918248815969</v>
       </c>
       <c r="E22" t="n">
-        <v>358.1909326607147</v>
+        <v>358.1909326607151</v>
       </c>
       <c r="F22" t="n">
-        <v>206.5145662164799</v>
+        <v>206.5145662164802</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5199245756299</v>
+        <v>66.8040734230074</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>217.2244773267158</v>
+        <v>217.2244773267157</v>
       </c>
       <c r="K22" t="n">
-        <v>613.3156093762976</v>
+        <v>613.3156093762975</v>
       </c>
       <c r="L22" t="n">
         <v>1134.555841572447</v>
@@ -5931,31 +5931,31 @@
         <v>2056.831284854205</v>
       </c>
       <c r="Q22" t="n">
-        <v>2319.32390786008</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2143.111040945151</v>
+        <v>2143.111040945152</v>
       </c>
       <c r="U22" t="n">
-        <v>1889.755096587903</v>
+        <v>1889.755096587904</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.830276052342</v>
+        <v>1627.830276052343</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.834559232643</v>
+        <v>1380.834559232644</v>
       </c>
       <c r="X22" t="n">
-        <v>1160.473492160064</v>
+        <v>1160.473492160065</v>
       </c>
       <c r="Y22" t="n">
-        <v>958.0845090681814</v>
+        <v>958.0845090681821</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>421.6785552754686</v>
+        <v>1105.613254639366</v>
       </c>
       <c r="C23" t="n">
-        <v>421.6785552754686</v>
+        <v>1105.613254639366</v>
       </c>
       <c r="D23" t="n">
-        <v>421.6785552754686</v>
+        <v>694.7341574078189</v>
       </c>
       <c r="E23" t="n">
-        <v>421.6785552754686</v>
+        <v>694.7341574078189</v>
       </c>
       <c r="F23" t="n">
-        <v>421.6785552754686</v>
+        <v>291.8974154110355</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>291.8974154110355</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
         <v>1775.969506973259</v>
@@ -6019,22 +6019,22 @@
         <v>2344.891895256542</v>
       </c>
       <c r="T23" t="n">
-        <v>2158.151331319663</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="U23" t="n">
-        <v>1924.111327435186</v>
+        <v>2280.818680351903</v>
       </c>
       <c r="V23" t="n">
-        <v>1586.525064963022</v>
+        <v>2280.818680351903</v>
       </c>
       <c r="W23" t="n">
-        <v>1206.700297968064</v>
+        <v>1900.993913356945</v>
       </c>
       <c r="X23" t="n">
-        <v>812.5885221413834</v>
+        <v>1506.882137530265</v>
       </c>
       <c r="Y23" t="n">
-        <v>429.3330860350457</v>
+        <v>1506.882137530265</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235823</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.6990560691507</v>
+        <v>671.9007270414468</v>
       </c>
       <c r="C25" t="n">
-        <v>624.1680321463846</v>
+        <v>524.3697031186805</v>
       </c>
       <c r="D25" t="n">
-        <v>483.3207269419161</v>
+        <v>383.522397914212</v>
       </c>
       <c r="E25" t="n">
-        <v>338.5934107866623</v>
+        <v>238.795081758958</v>
       </c>
       <c r="F25" t="n">
-        <v>186.9170443424274</v>
+        <v>87.11871531472309</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>85.27115051869788</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>85.27115051869788</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>217.2244773267158</v>
+        <v>217.2244773267157</v>
       </c>
       <c r="K25" t="n">
-        <v>613.3156093762977</v>
+        <v>613.3156093762975</v>
       </c>
       <c r="L25" t="n">
-        <v>1134.555841572446</v>
+        <v>1134.555841572447</v>
       </c>
       <c r="M25" t="n">
         <v>1289.692810821864</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2340.730055573683</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T25" t="n">
-        <v>2123.513519071099</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U25" t="n">
-        <v>1870.157574713851</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V25" t="n">
-        <v>1608.23275417829</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W25" t="n">
-        <v>1361.23703735859</v>
+        <v>1261.438708330887</v>
       </c>
       <c r="X25" t="n">
-        <v>1140.875970286012</v>
+        <v>1041.077641258308</v>
       </c>
       <c r="Y25" t="n">
-        <v>938.4869871941289</v>
+        <v>838.6886581664251</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024.257796809404</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C26" t="n">
-        <v>1586.115323992828</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D26" t="n">
-        <v>1150.205539167272</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E26" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>2068.407113810038</v>
       </c>
       <c r="V26" t="n">
-        <v>2024.257796809404</v>
+        <v>1705.790163743865</v>
       </c>
       <c r="W26" t="n">
-        <v>2024.257796809404</v>
+        <v>1300.934709154898</v>
       </c>
       <c r="X26" t="n">
-        <v>2024.257796809404</v>
+        <v>881.7922457342091</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.257796809404</v>
+        <v>473.5061220338625</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
         <v>436.114843903033</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D28" t="n">
-        <v>753.852136908379</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>100.9350064316454</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895473</v>
@@ -6387,22 +6387,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>413.3628026016838</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M28" t="n">
-        <v>997.5438780199985</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N28" t="n">
-        <v>1567.301592981533</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O28" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1756.921885295098</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1756.921885295098</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>662.4043965773304</v>
+        <v>1616.712750254118</v>
       </c>
       <c r="C29" t="n">
-        <v>662.4043965773304</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K29" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
         <v>1775.969506973259</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.402314586986</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W29" t="n">
-        <v>1081.54685999802</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X29" t="n">
-        <v>662.4043965773304</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y29" t="n">
-        <v>662.4043965773304</v>
+        <v>2043.012320739026</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043084</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
@@ -6627,16 +6627,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>767.3301446246907</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M31" t="n">
-        <v>897.93453696322</v>
+        <v>818.7256495113487</v>
       </c>
       <c r="N31" t="n">
-        <v>1467.692251924754</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P31" t="n">
         <v>2105.896438675981</v>
@@ -6645,28 +6645,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.877393424667</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.877393424667</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1756.921885295098</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.921885295098</v>
+        <v>1521.264887214571</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>1275.873132547983</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>1048.453461862091</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>909.1151771426274</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>470.9727043260507</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>470.9727043260507</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>470.9727043260507</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>470.9727043260507</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
@@ -6703,16 +6703,16 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
         <v>1775.969506973259</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="X32" t="n">
-        <v>1900.718744241844</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="Y32" t="n">
-        <v>1900.718744241844</v>
+        <v>1335.414747627535</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043084</v>
@@ -6782,22 +6782,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.196554659879</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C34" t="n">
-        <v>856.6348431431041</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D34" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E34" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F34" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092384</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U34" t="n">
-        <v>1965.853003145054</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V34" t="n">
-        <v>1965.853003145054</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W34" t="n">
-        <v>1693.826598731346</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.434844064758</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y34" t="n">
-        <v>1221.015173378866</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447736</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447736</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.185114027047</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y35" t="n">
-        <v>1941.185114027047</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7013,28 +7013,28 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>566.2333208532364</v>
+        <v>807.9003835041283</v>
       </c>
       <c r="C37" t="n">
-        <v>393.6716093364612</v>
+        <v>635.3386719873532</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364612</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895472</v>
@@ -7104,16 +7104,16 @@
         <v>831.5726843696448</v>
       </c>
       <c r="M37" t="n">
-        <v>1415.75375978796</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N37" t="n">
-        <v>1708.047382044526</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2310.479133515832</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>2068.231909419238</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1789.845277467981</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1502.889769338411</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1230.863364924703</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>985.4716102581153</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.0519395722235</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>908.8487259814518</v>
+        <v>499.1987871288554</v>
       </c>
       <c r="C38" t="n">
-        <v>908.8487259814518</v>
+        <v>499.1987871288554</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>499.1987871288554</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>499.1987871288554</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895472</v>
+        <v>499.1987871288554</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895472</v>
@@ -7180,7 +7180,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7204,22 +7204,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2162.576883587396</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>2162.576883587396</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V38" t="n">
-        <v>2162.576883587396</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W38" t="n">
-        <v>2162.576883587396</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X38" t="n">
-        <v>1743.434420166706</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="Y38" t="n">
-        <v>1335.14829646636</v>
+        <v>925.4983576137632</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7311,19 +7311,19 @@
         <v>616.0817647851411</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268366</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D40" t="n">
-        <v>443.520053268366</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>273.49671794842</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895472</v>
+        <v>108.7555375609384</v>
       </c>
       <c r="H40" t="n">
         <v>47.20655154895472</v>
@@ -7335,16 +7335,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>831.5726843696448</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>962.1770767081742</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954412</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
         <v>1657.620488527956</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1154.573267142144</v>
+        <v>1444.163810064192</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>1444.163810064192</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E41" t="n">
         <v>716.4307943255671</v>
@@ -7405,7 +7405,7 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7417,7 +7417,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7429,10 +7429,10 @@
         <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152527</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163595</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447736</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2248.229652805884</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U41" t="n">
-        <v>1989.158961327398</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="V41" t="n">
-        <v>1989.158961327398</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="W41" t="n">
-        <v>1989.158961327398</v>
+        <v>1444.163810064192</v>
       </c>
       <c r="X41" t="n">
-        <v>1989.158961327398</v>
+        <v>1444.163810064192</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.872837627051</v>
+        <v>1444.163810064192</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030328</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K42" t="n">
         <v>335.7952991210681</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851411</v>
+        <v>761.6726680376725</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268366</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="D43" t="n">
-        <v>443.520053268366</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E43" t="n">
-        <v>273.7620495191033</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F43" t="n">
-        <v>97.0549954808595</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L43" t="n">
-        <v>831.5726843696448</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M43" t="n">
-        <v>962.1770767081742</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954412</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2263.671256603674</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2263.671256603674</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1985.284624652417</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1698.329116522847</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1426.302712109139</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.32005419002</v>
+        <v>1180.910957442551</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041283</v>
+        <v>953.4912867566595</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7651,10 +7651,10 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662533</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662533</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2174.986966797031</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X44" t="n">
-        <v>1755.844503376341</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y44" t="n">
-        <v>1347.558379675995</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7721,13 +7721,13 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
         <v>335.7952991210681</v>
@@ -7736,7 +7736,7 @@
         <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7748,22 +7748,22 @@
         <v>1488.088567599444</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R45" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S45" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633325</v>
       </c>
       <c r="T45" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.938530508978</v>
       </c>
       <c r="U45" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332859</v>
       </c>
       <c r="V45" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.551175394858</v>
       </c>
       <c r="W45" t="n">
         <v>945.2284211280532</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.29078252242</v>
+        <v>471.6552262893752</v>
       </c>
       <c r="C46" t="n">
-        <v>724.29078252242</v>
+        <v>299.0935147726001</v>
       </c>
       <c r="D46" t="n">
-        <v>558.4127897239428</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F46" t="n">
         <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>320.0013704257346</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>862.0820538119935</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>992.686446150523</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1120.185357954412</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855377</v>
       </c>
       <c r="U46" t="n">
-        <v>1947.902739137164</v>
+        <v>1695.26718290412</v>
       </c>
       <c r="V46" t="n">
-        <v>1660.947231007595</v>
+        <v>1408.31167477455</v>
       </c>
       <c r="W46" t="n">
-        <v>1388.920826593886</v>
+        <v>1136.285270360842</v>
       </c>
       <c r="X46" t="n">
-        <v>1143.529071927299</v>
+        <v>890.8935156942541</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.1094012414071</v>
+        <v>663.4738450083623</v>
       </c>
     </row>
   </sheetData>
@@ -8853,7 +8853,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>376.6028824918818</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>376.602882491881</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,7 +9090,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>376.6028824918816</v>
+        <v>376.6028824918818</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>376.6028824918817</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9564,7 +9564,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>376.6028824918817</v>
+        <v>376.6028824918818</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>376.6028824918814</v>
+        <v>376.6028824918818</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>69.27619576520647</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,19 +10275,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>80.00897722411241</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>156.7304232042874</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>30.81754489126138</v>
       </c>
       <c r="N37" t="n">
-        <v>166.4593034875525</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10992,10 +10992,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>30.81754489126138</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>30.81754489126138</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>30.81754489126138</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464589</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397.2561940619898</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C11" t="n">
-        <v>408.9806673703421</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>406.7703062592311</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E11" t="n">
-        <v>404.6566166752189</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>201.6202568358695</v>
+        <v>76.10335065842324</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>15.28132536928219</v>
+        <v>15.28132536928228</v>
       </c>
       <c r="T11" t="n">
-        <v>184.8731582975101</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U11" t="n">
-        <v>231.6996038456324</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.56493523408939</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>106.2402392964084</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>37.68395298004563</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>98.8003457374268</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>397.2561940619898</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>408.9806673703421</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D14" t="n">
-        <v>299.4138981776027</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>15.28132536928219</v>
+        <v>15.28132536928227</v>
       </c>
       <c r="T14" t="n">
-        <v>184.8731582975101</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>231.6996038456324</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>334.2103998474429</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>40.18648339328394</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>379.4228817452743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>86.83869264109606</v>
+        <v>65.60175288141204</v>
       </c>
       <c r="I16" t="n">
-        <v>37.68395298004563</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.201892392739</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>397.2561940619898</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>332.3680462229369</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.28132536928219</v>
+        <v>15.28132536928227</v>
       </c>
       <c r="T17" t="n">
-        <v>184.8731582975101</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U17" t="n">
-        <v>231.6996038456324</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V17" t="n">
-        <v>334.2103998474429</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W17" t="n">
-        <v>376.0265193250082</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>116.6530013722176</v>
       </c>
       <c r="Y17" t="n">
-        <v>379.4228817452743</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>42.35944475291753</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.2402392964084</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.68395298004563</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>98.80034573742705</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>354.7349075857955</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>328.9671123863092</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>15.28132536928228</v>
       </c>
       <c r="T20" t="n">
-        <v>184.8731582975101</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U20" t="n">
-        <v>231.6996038456324</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>334.2103998474429</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W20" t="n">
-        <v>376.0265193250082</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X20" t="n">
-        <v>390.1706580684136</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>379.4228817452743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>86.8386926410965</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.83869264109637</v>
       </c>
       <c r="I22" t="n">
-        <v>37.68395298004563</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.201892392739</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>389.6782086100085</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>408.9806673703421</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D23" t="n">
-        <v>406.7703062592311</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>404.6566166752189</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F23" t="n">
-        <v>398.8083745768155</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H23" t="n">
-        <v>242.2439552234598</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>168.2671210900395</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="24">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.4842987174731</v>
       </c>
       <c r="H25" t="n">
-        <v>106.2402392964084</v>
+        <v>106.2402392964085</v>
       </c>
       <c r="I25" t="n">
-        <v>37.68395298004562</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>98.80034573742634</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>177.1322645779589</v>
       </c>
       <c r="V26" t="n">
-        <v>66.34340382091364</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>109.902598249743</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>61.03815536706756</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>251.9418177924958</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>339.7764034246494</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>69.52134278359704</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>238.1475475743834</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>305.3969917679808</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>243.0035090995212</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>267.8799620385243</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>105.299356559714</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.3352856806304</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>397.7988917382569</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>106.6075596444467</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>93.63231361822235</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>215.0596871247446</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>13.88035209384176</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.743809091021</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>70.08712386261337</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811444</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>140.5319987893488</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>138.7382997074964</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.743809091021</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>47.29251547518683</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>257.3814015862295</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>42.73835744761595</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>77.94488786269032</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>107.1269275599061</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>299842.5636282699</v>
+        <v>299842.5636282698</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>299842.5636282699</v>
+        <v>299842.5636282698</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>299842.5636282699</v>
+        <v>299842.5636282698</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>299842.5636282699</v>
+        <v>299842.5636282698</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>299842.5636282699</v>
+        <v>299842.5636282698</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>273958.9603606327</v>
+        <v>273958.9603606326</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>273958.9603606326</v>
+        <v>273958.9603606327</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>273958.9603606327</v>
+        <v>273958.9603606326</v>
       </c>
     </row>
     <row r="16">
@@ -26322,13 +26322,13 @@
         <v>497215.4012453022</v>
       </c>
       <c r="E2" t="n">
-        <v>333574.7691357376</v>
+        <v>333574.7691357374</v>
       </c>
       <c r="F2" t="n">
-        <v>333574.7691357374</v>
+        <v>333574.7691357375</v>
       </c>
       <c r="G2" t="n">
-        <v>333574.7691357376</v>
+        <v>333574.7691357375</v>
       </c>
       <c r="H2" t="n">
         <v>333574.7691357375</v>
@@ -26337,25 +26337,25 @@
         <v>333574.7691357376</v>
       </c>
       <c r="J2" t="n">
-        <v>298865.3854715529</v>
+        <v>298865.385471553</v>
       </c>
       <c r="K2" t="n">
-        <v>298865.3854715529</v>
+        <v>298865.385471553</v>
       </c>
       <c r="L2" t="n">
-        <v>298865.385471553</v>
+        <v>298865.3854715531</v>
       </c>
       <c r="M2" t="n">
         <v>298865.385471553</v>
       </c>
       <c r="N2" t="n">
+        <v>298865.3854715529</v>
+      </c>
+      <c r="O2" t="n">
+        <v>298865.385471553</v>
+      </c>
+      <c r="P2" t="n">
         <v>298865.3854715528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>298865.3854715528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>298865.385471553</v>
       </c>
     </row>
     <row r="3">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>43313.98677137486</v>
+        <v>43313.98677137475</v>
       </c>
       <c r="F4" t="n">
-        <v>43313.98677137487</v>
+        <v>43313.98677137475</v>
       </c>
       <c r="G4" t="n">
-        <v>43313.98677137487</v>
+        <v>43313.98677137475</v>
       </c>
       <c r="H4" t="n">
-        <v>43313.98677137487</v>
+        <v>43313.98677137475</v>
       </c>
       <c r="I4" t="n">
-        <v>43313.98677137484</v>
+        <v>43313.98677137475</v>
       </c>
       <c r="J4" t="n">
         <v>22750.61565481864</v>
@@ -26447,10 +26447,10 @@
         <v>22750.61565481863</v>
       </c>
       <c r="L4" t="n">
-        <v>22750.61565481864</v>
+        <v>22750.61565481863</v>
       </c>
       <c r="M4" t="n">
-        <v>22750.61565481862</v>
+        <v>22750.61565481863</v>
       </c>
       <c r="N4" t="n">
         <v>22750.61565481863</v>
@@ -26459,7 +26459,7 @@
         <v>22750.61565481863</v>
       </c>
       <c r="P4" t="n">
-        <v>22750.61565481863</v>
+        <v>22750.61565481864</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>48134.34303622512</v>
       </c>
       <c r="F5" t="n">
-        <v>48134.34303622512</v>
+        <v>48134.34303622513</v>
       </c>
       <c r="G5" t="n">
-        <v>48134.34303622512</v>
+        <v>48134.34303622513</v>
       </c>
       <c r="H5" t="n">
-        <v>48134.34303622512</v>
+        <v>48134.34303622513</v>
       </c>
       <c r="I5" t="n">
         <v>48134.34303622513</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="D6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="E6" t="n">
-        <v>-328833.066236993</v>
+        <v>-329295.6061968882</v>
       </c>
       <c r="F6" t="n">
-        <v>242126.4393281374</v>
+        <v>241663.8993682425</v>
       </c>
       <c r="G6" t="n">
-        <v>242126.4393281376</v>
+        <v>241663.8993682425</v>
       </c>
       <c r="H6" t="n">
-        <v>242126.4393281375</v>
+        <v>241663.8993682425</v>
       </c>
       <c r="I6" t="n">
-        <v>242126.4393281377</v>
+        <v>241663.8993682426</v>
       </c>
       <c r="J6" t="n">
-        <v>230063.6886070964</v>
+        <v>229509.8081638745</v>
       </c>
       <c r="K6" t="n">
-        <v>230063.6886070965</v>
+        <v>229509.8081638746</v>
       </c>
       <c r="L6" t="n">
-        <v>230063.6886070965</v>
+        <v>229509.8081638747</v>
       </c>
       <c r="M6" t="n">
-        <v>83012.92020452514</v>
+        <v>82459.03976130318</v>
       </c>
       <c r="N6" t="n">
-        <v>230063.6886070964</v>
+        <v>229509.8081638745</v>
       </c>
       <c r="O6" t="n">
-        <v>230063.6886070964</v>
+        <v>229509.8081638746</v>
       </c>
       <c r="P6" t="n">
-        <v>230063.6886070966</v>
+        <v>229509.8081638744</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F2" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G2" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H2" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I2" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932211</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
@@ -26816,10 +26816,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
         <v>590.081894361934</v>
@@ -26828,10 +26828,10 @@
         <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.78038071806882</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="26">
@@ -30838,7 +30838,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -31761,7 +31761,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
@@ -31779,7 +31779,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.607267687947</v>
@@ -31788,10 +31788,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.150095092452091</v>
@@ -31834,19 +31834,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108054</v>
@@ -31861,7 +31861,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -31870,7 +31870,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356904</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
@@ -32010,28 +32010,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32490,7 +32490,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.607267687947</v>
@@ -32499,10 +32499,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.150095092452091</v>
@@ -32545,19 +32545,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108054</v>
@@ -32572,7 +32572,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -32581,7 +32581,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356904</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
@@ -34368,10 +34368,10 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062833</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -34386,7 +34386,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
         <v>202.607267687947</v>
@@ -34395,10 +34395,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
         <v>0.150095092452091</v>
@@ -34441,19 +34441,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108054</v>
@@ -34468,7 +34468,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -34477,7 +34477,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356904</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35573,16 +35573,16 @@
         <v>400.0920525753352</v>
       </c>
       <c r="L13" t="n">
-        <v>149.9024025547334</v>
+        <v>526.5052850466151</v>
       </c>
       <c r="M13" t="n">
-        <v>156.704009342846</v>
+        <v>156.7040093428459</v>
       </c>
       <c r="N13" t="n">
-        <v>153.5671603179574</v>
+        <v>153.5671603179571</v>
       </c>
       <c r="O13" t="n">
-        <v>520.3386989147598</v>
+        <v>143.7358164228785</v>
       </c>
       <c r="P13" t="n">
         <v>477.584370766579</v>
@@ -35591,7 +35591,7 @@
         <v>265.144063642299</v>
       </c>
       <c r="R13" t="n">
-        <v>41.41784806833895</v>
+        <v>41.41784806833886</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
@@ -35655,10 +35655,10 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548409</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35810,7 +35810,7 @@
         <v>400.0920525753352</v>
       </c>
       <c r="L16" t="n">
-        <v>526.505285046615</v>
+        <v>526.5052850466151</v>
       </c>
       <c r="M16" t="n">
         <v>156.7040093428459</v>
@@ -35825,10 +35825,10 @@
         <v>477.584370766579</v>
       </c>
       <c r="Q16" t="n">
-        <v>265.144063642299</v>
+        <v>265.1440636422994</v>
       </c>
       <c r="R16" t="n">
-        <v>41.41784806833895</v>
+        <v>41.41784806833887</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35895,13 +35895,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36047,25 +36047,25 @@
         <v>400.0920525753352</v>
       </c>
       <c r="L19" t="n">
-        <v>526.505285046615</v>
+        <v>149.9024025547333</v>
       </c>
       <c r="M19" t="n">
-        <v>156.7040093428459</v>
+        <v>156.704009342846</v>
       </c>
       <c r="N19" t="n">
         <v>153.5671603179571</v>
       </c>
       <c r="O19" t="n">
-        <v>143.7358164228785</v>
+        <v>520.3386989147602</v>
       </c>
       <c r="P19" t="n">
         <v>477.584370766579</v>
       </c>
       <c r="Q19" t="n">
-        <v>265.1440636422985</v>
+        <v>265.1440636422994</v>
       </c>
       <c r="R19" t="n">
-        <v>41.41784806833895</v>
+        <v>41.41784806833887</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562336</v>
@@ -36205,22 +36205,22 @@
         <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36284,7 +36284,7 @@
         <v>400.0920525753352</v>
       </c>
       <c r="L22" t="n">
-        <v>526.505285046615</v>
+        <v>526.5052850466151</v>
       </c>
       <c r="M22" t="n">
         <v>156.7040093428459</v>
@@ -36299,10 +36299,10 @@
         <v>477.584370766579</v>
       </c>
       <c r="Q22" t="n">
-        <v>265.1440636422985</v>
+        <v>265.1440636422994</v>
       </c>
       <c r="R22" t="n">
-        <v>41.41784806833895</v>
+        <v>41.41784806833886</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36369,10 +36369,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811317</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36518,10 +36518,10 @@
         <v>171.735278563395</v>
       </c>
       <c r="K25" t="n">
-        <v>400.0920525753353</v>
+        <v>400.0920525753352</v>
       </c>
       <c r="L25" t="n">
-        <v>526.5052850466146</v>
+        <v>526.5052850466151</v>
       </c>
       <c r="M25" t="n">
         <v>156.7040093428459</v>
@@ -36533,13 +36533,13 @@
         <v>143.7358164228785</v>
       </c>
       <c r="P25" t="n">
-        <v>477.5843707665792</v>
+        <v>477.584370766579</v>
       </c>
       <c r="Q25" t="n">
         <v>265.1440636422994</v>
       </c>
       <c r="R25" t="n">
-        <v>41.41784806833896</v>
+        <v>41.41784806833886</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>171.06312119721</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027014</v>
@@ -36837,19 +36837,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562336</v>
@@ -36995,22 +36995,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>205.130999060777</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954891</v>
+        <v>304.5047560030947</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027014</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766673</v>
@@ -37080,10 +37080,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>281.8524450409519</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37472,22 +37472,22 @@
         <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.081894361934</v>
+        <v>162.7411735160385</v>
       </c>
       <c r="N37" t="n">
-        <v>295.2460830874409</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
@@ -37627,7 +37627,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37703,7 +37703,7 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
@@ -37712,10 +37712,10 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>159.6043244911498</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
@@ -37785,25 +37785,25 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.9630089646689</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>159.6043244911498</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
@@ -37958,7 +37958,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027014</v>
@@ -38016,10 +38016,10 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062833</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38028,10 +38028,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562336</v>
@@ -38101,22 +38101,22 @@
         <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>128.5954242524313</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
@@ -38189,7 +38189,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512687</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
@@ -38198,7 +38198,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
